--- a/DataBase/SaveData.xlsx
+++ b/DataBase/SaveData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:t>ガブリアス</x:t>
   </x:si>
@@ -68,6 +68,33 @@
   </x:si>
   <x:si>
     <x:t>ワザ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>クチート</x:t>
+  </x:si>
+  <x:si>
+    <x:t>いじっぱり</x:t>
+  </x:si>
+  <x:si>
+    <x:t>いのちのたま</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ほげ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ああああ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">じゃれつく
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">かわいい
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ああああああ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -585,6 +612,89 @@
         <x:v>80</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:27">
+      <x:c r="A3" s="1" t="n">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="n">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="n">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q3" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="R3" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="S3" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="T3" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="U3" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V3" s="1" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="W3" s="1" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="X3" s="1" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="Y3" s="1" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="Z3" s="1" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AA3" s="1" t="n">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/DataBase/SaveData.xlsx
+++ b/DataBase/SaveData.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12653" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,112 +20,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>ギルガルド剣</x:t>
+  </x:si>
+  <x:si>
+    <x:t>れいせい</x:t>
+  </x:si>
+  <x:si>
+    <x:t>こだわりスカーフ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ぐｒあｆｆ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ふぁ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ふぁｒ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>れ</x:t>
+  </x:si>
   <x:si>
     <x:t>ガブリアス</x:t>
   </x:si>
   <x:si>
-    <x:t>まじめ</x:t>
+    <x:t>いじっぱり</x:t>
   </x:si>
   <x:si>
     <x:t>なし</x:t>
   </x:si>
   <x:si>
-    <x:t>すながくれ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ドラゴンクロー
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">げきりん
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">つるぎのまい
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>じしん</x:t>
-  </x:si>
-  <x:si>
-    <x:t>クチート</x:t>
-  </x:si>
-  <x:si>
-    <x:t>いじっぱり</x:t>
+    <x:t>とくせい</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">あｆ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ｆあ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ああ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">l
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ゆうかん</x:t>
   </x:si>
   <x:si>
     <x:t>いのちのたま</x:t>
   </x:si>
   <x:si>
-    <x:t>ほげ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ああああ
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">じゃれつく
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">かわいい
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ああああああ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サンダー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>わんぱく</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">a
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">g
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h</x:t>
-  </x:si>
-  <x:si>
-    <x:t>マスキッパ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ようき</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aaaa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>オドシシ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ひかえめ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">f
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>フシギバナ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>のんき</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">r
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r</x:t>
+    <x:t xml:space="preserve">あ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">あｆ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ｓｆｆ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ｆｓｓ
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -470,20 +440,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AA2"/>
+  <x:dimension ref="A1:AA1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:A2 A2:XFD2"/>
+      <x:selection activeCell="D5" sqref="D5 D5:D5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="20.15" x14ac:dyDescent="0.7"/>
+  <x:sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.95"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.199219" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="9.207031" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:27" x14ac:dyDescent="0.7">
+    <x:row r="1" spans="1:27" x14ac:dyDescent="0.95">
       <x:c r="A1" s="2" t="n">
-        <x:v>445</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
         <x:v>0</x:v>
@@ -494,183 +464,180 @@
       <x:c r="D1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="G1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s">
+      <x:c r="H1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H1" s="2" t="s">
+      <x:c r="I1" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="I1" s="2" t="s">
+      <x:c r="J1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U1" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V1" s="2" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="W1" s="2" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="X1" s="2" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="Y1" s="2" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="Z1" s="2" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="AA1" s="2" t="n">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:27">
+      <x:c r="A2" s="2" t="n">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="J1" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K1" s="2" t="n">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="L1" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M1" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N1" s="2" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O1" s="2" t="n">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="P1" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q1" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R1" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S1" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="T1" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="U1" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="V1" s="2" t="n">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="W1" s="2" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="X1" s="2" t="n">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="Y1" s="2" t="n">
+      <x:c r="C2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="V2" s="2" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="W2" s="2" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="X2" s="2" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="Z1" s="2" t="n">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="AA1" s="2" t="n">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:27" x14ac:dyDescent="0.7">
-      <x:c r="A2" s="2" t="n">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J2" s="2" t="n">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="K2" s="2" t="n">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="L2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O2" s="2" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="P2" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q2" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R2" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S2" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="T2" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="U2" s="2" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="V2" s="2" t="n">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="W2" s="2" t="n">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="X2" s="2" t="n">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="Y2" s="2" t="n">
-        <x:v>97</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Z2" s="2" t="n">
-        <x:v>67</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="AA2" s="2" t="n">
-        <x:v>71</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:27">
       <x:c r="A3" s="2" t="n">
-        <x:v>145</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J3" s="2" t="n">
         <x:v>0</x:v>
@@ -709,57 +676,54 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V3" s="2" t="n">
-        <x:v>150</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="W3" s="2" t="n">
-        <x:v>123</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="X3" s="2" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Y3" s="2" t="n">
-        <x:v>152</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Z3" s="2" t="n">
-        <x:v>95</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="AA3" s="2" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:27">
       <x:c r="A4" s="2" t="n">
-        <x:v>455</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J4" s="2" t="n">
-        <x:v>252</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="2" t="n">
-        <x:v>252</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="2" t="n">
         <x:v>0</x:v>
@@ -771,7 +735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="2" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P4" s="2" t="n">
         <x:v>0</x:v>
@@ -789,187 +753,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U4" s="2" t="n">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V4" s="2" t="n">
-        <x:v>165</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="W4" s="2" t="n">
-        <x:v>136</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X4" s="2" t="n">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="n">
-        <x:v>85</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="n">
-        <x:v>77</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="n">
-        <x:v>73</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:27">
-      <x:c r="A5" s="2" t="n">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V5" s="2" t="n">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="W5" s="2" t="n">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="X5" s="2" t="n">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="Y5" s="2" t="n">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="Z5" s="2" t="n">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="AA5" s="2" t="n">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:27">
-      <x:c r="A6" s="2" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G6" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H6" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I6" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V6" s="2" t="n">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="W6" s="2" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="X6" s="2" t="n">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="Y6" s="2" t="n">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="Z6" s="2" t="n">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="AA6" s="2" t="n">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="5" spans="1:27"/>
   </x:sheetData>
   <x:phoneticPr fontId="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
